--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Sema6d-Trem2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H2">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I2">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J2">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8981156666666666</v>
+        <v>0.4425036666666667</v>
       </c>
       <c r="N2">
-        <v>2.694347</v>
+        <v>1.327511</v>
       </c>
       <c r="O2">
-        <v>0.004031692401101065</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="P2">
-        <v>0.004031692401101066</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="Q2">
-        <v>44.451266752978</v>
+        <v>24.74082457201711</v>
       </c>
       <c r="R2">
-        <v>400.061400776802</v>
+        <v>222.667421148154</v>
       </c>
       <c r="S2">
-        <v>0.002874927636976582</v>
+        <v>0.001942205751120969</v>
       </c>
       <c r="T2">
-        <v>0.002874927636976583</v>
+        <v>0.001942205751120969</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H3">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I3">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J3">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,28 +620,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>127.1208573333333</v>
+        <v>70.96028133333334</v>
       </c>
       <c r="N3">
-        <v>381.362572</v>
+        <v>212.880844</v>
       </c>
       <c r="O3">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="P3">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="Q3">
-        <v>6291.709797429127</v>
+        <v>3967.46062077598</v>
       </c>
       <c r="R3">
-        <v>56625.38817686215</v>
+        <v>35707.14558698382</v>
       </c>
       <c r="S3">
-        <v>0.406922270201749</v>
+        <v>0.3114538406990872</v>
       </c>
       <c r="T3">
-        <v>0.406922270201749</v>
+        <v>0.3114538406990872</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H4">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I4">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J4">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.1024133333333333</v>
+        <v>0.080319</v>
       </c>
       <c r="N4">
-        <v>0.30724</v>
+        <v>0.240957</v>
       </c>
       <c r="O4">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="P4">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="Q4">
-        <v>5.06883753176</v>
+        <v>4.490715983822</v>
       </c>
       <c r="R4">
-        <v>45.61953778584</v>
+        <v>40.416443854398</v>
       </c>
       <c r="S4">
-        <v>0.0003278318520905753</v>
+        <v>0.0003525304657911349</v>
       </c>
       <c r="T4">
-        <v>0.0003278318520905753</v>
+        <v>0.000352530465791135</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.493922</v>
+        <v>55.91100466666666</v>
       </c>
       <c r="H5">
-        <v>148.481766</v>
+        <v>167.733014</v>
       </c>
       <c r="I5">
-        <v>0.7130820883536235</v>
+        <v>0.7311810562391667</v>
       </c>
       <c r="J5">
-        <v>0.7130820883536234</v>
+        <v>0.7311810562391668</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>94.64254933333332</v>
+        <v>95.105991</v>
       </c>
       <c r="N5">
-        <v>283.927648</v>
+        <v>285.317973</v>
       </c>
       <c r="O5">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="P5">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="Q5">
-        <v>4684.230954585151</v>
+        <v>5317.471506628958</v>
       </c>
       <c r="R5">
-        <v>42158.07859126636</v>
+        <v>47857.24355966062</v>
       </c>
       <c r="S5">
-        <v>0.3029570586628073</v>
+        <v>0.4174324793231675</v>
       </c>
       <c r="T5">
-        <v>0.3029570586628073</v>
+        <v>0.4174324793231676</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -794,10 +794,10 @@
         <v>38.609574</v>
       </c>
       <c r="I6">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J6">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8981156666666666</v>
+        <v>0.4425036666666667</v>
       </c>
       <c r="N6">
-        <v>2.694347</v>
+        <v>1.327511</v>
       </c>
       <c r="O6">
-        <v>0.004031692401101065</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="P6">
-        <v>0.004031692401101066</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="Q6">
-        <v>11.55862109757533</v>
+        <v>5.694959354479334</v>
       </c>
       <c r="R6">
-        <v>104.027589878178</v>
+        <v>51.25463419031401</v>
       </c>
       <c r="S6">
-        <v>0.000747564730234233</v>
+        <v>0.000447066053860635</v>
       </c>
       <c r="T6">
-        <v>0.0007475647302342329</v>
+        <v>0.0004470660538606351</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>38.609574</v>
       </c>
       <c r="I7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J7">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>127.1208573333333</v>
+        <v>70.96028133333334</v>
       </c>
       <c r="N7">
-        <v>381.362572</v>
+        <v>212.880844</v>
       </c>
       <c r="O7">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="P7">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="Q7">
-        <v>1636.027382718259</v>
+        <v>913.2487444000508</v>
       </c>
       <c r="R7">
-        <v>14724.24644446433</v>
+        <v>8219.238699600457</v>
       </c>
       <c r="S7">
-        <v>0.1058116153036759</v>
+        <v>0.07169190979931725</v>
       </c>
       <c r="T7">
-        <v>0.1058116153036759</v>
+        <v>0.07169190979931726</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,40 +918,40 @@
         <v>38.609574</v>
       </c>
       <c r="I8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J8">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1024133333333333</v>
+        <v>0.080319</v>
       </c>
       <c r="N8">
-        <v>0.30724</v>
+        <v>0.240957</v>
       </c>
       <c r="O8">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="P8">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="Q8">
-        <v>1.318045057306667</v>
+        <v>1.033694124702</v>
       </c>
       <c r="R8">
-        <v>11.86240551576</v>
+        <v>9.303247122318</v>
       </c>
       <c r="S8">
-        <v>8.524580824859078E-05</v>
+        <v>8.1147120543707E-05</v>
       </c>
       <c r="T8">
-        <v>8.524580824859075E-05</v>
+        <v>8.114712054370702E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>38.609574</v>
       </c>
       <c r="I9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221897</v>
       </c>
       <c r="J9">
-        <v>0.185422064944754</v>
+        <v>0.1683066942221898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>94.64254933333332</v>
+        <v>95.105991</v>
       </c>
       <c r="N9">
-        <v>283.927648</v>
+        <v>285.317973</v>
       </c>
       <c r="O9">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="P9">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="Q9">
-        <v>1218.036170677995</v>
+        <v>1224.000599119278</v>
       </c>
       <c r="R9">
-        <v>10962.32553610195</v>
+        <v>11016.0053920735</v>
       </c>
       <c r="S9">
-        <v>0.07877763910259528</v>
+        <v>0.09608657124846816</v>
       </c>
       <c r="T9">
-        <v>0.07877763910259526</v>
+        <v>0.09608657124846817</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,22 +1030,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H10">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I10">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J10">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1054,28 +1054,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.8981156666666666</v>
+        <v>0.4425036666666667</v>
       </c>
       <c r="N10">
-        <v>2.694347</v>
+        <v>1.327511</v>
       </c>
       <c r="O10">
-        <v>0.004031692401101065</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="P10">
-        <v>0.004031692401101066</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="Q10">
-        <v>0.08149501559333333</v>
+        <v>0.3073087664168889</v>
       </c>
       <c r="R10">
-        <v>0.73345514034</v>
+        <v>2.765778897752</v>
       </c>
       <c r="S10">
-        <v>5.270767060635347E-06</v>
+        <v>2.412437191684555E-05</v>
       </c>
       <c r="T10">
-        <v>5.270767060635347E-06</v>
+        <v>2.412437191684556E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,22 +1092,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H11">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I11">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J11">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>127.1208573333333</v>
+        <v>70.96028133333334</v>
       </c>
       <c r="N11">
-        <v>381.362572</v>
+        <v>212.880844</v>
       </c>
       <c r="O11">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="P11">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="Q11">
-        <v>11.53494659442667</v>
+        <v>49.28030695295644</v>
       </c>
       <c r="R11">
-        <v>103.81451934984</v>
+        <v>443.522762576608</v>
       </c>
       <c r="S11">
-        <v>0.0007460335593955701</v>
+        <v>0.003868605725020719</v>
       </c>
       <c r="T11">
-        <v>0.0007460335593955699</v>
+        <v>0.00386860572502072</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H12">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I12">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J12">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.1024133333333333</v>
+        <v>0.080319</v>
       </c>
       <c r="N12">
-        <v>0.30724</v>
+        <v>0.240957</v>
       </c>
       <c r="O12">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="P12">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="Q12">
-        <v>0.009292985866666667</v>
+        <v>0.055779724936</v>
       </c>
       <c r="R12">
-        <v>0.08363687280000001</v>
+        <v>0.5020175244239999</v>
       </c>
       <c r="S12">
-        <v>6.010326330311591E-07</v>
+        <v>4.378823440233154E-06</v>
       </c>
       <c r="T12">
-        <v>6.010326330311589E-07</v>
+        <v>4.378823440233155E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.09074</v>
+        <v>0.6944773333333333</v>
       </c>
       <c r="H13">
-        <v>0.27222</v>
+        <v>2.083432</v>
       </c>
       <c r="I13">
-        <v>0.001307333629717358</v>
+        <v>0.00908208809961812</v>
       </c>
       <c r="J13">
-        <v>0.001307333629717358</v>
+        <v>0.009082088099618121</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1240,28 +1240,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>94.64254933333332</v>
+        <v>95.105991</v>
       </c>
       <c r="N13">
-        <v>283.927648</v>
+        <v>285.317973</v>
       </c>
       <c r="O13">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="P13">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="Q13">
-        <v>8.587864926506665</v>
+        <v>66.048955013704</v>
       </c>
       <c r="R13">
-        <v>77.29078433856</v>
+        <v>594.4405951233359</v>
       </c>
       <c r="S13">
-        <v>0.0005554282706281215</v>
+        <v>0.005184979179240322</v>
       </c>
       <c r="T13">
-        <v>0.0005554282706281214</v>
+        <v>0.005184979179240322</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H14">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I14">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J14">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8981156666666666</v>
+        <v>0.4425036666666667</v>
       </c>
       <c r="N14">
-        <v>2.694347</v>
+        <v>1.327511</v>
       </c>
       <c r="O14">
-        <v>0.004031692401101065</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="P14">
-        <v>0.004031692401101066</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="Q14">
-        <v>5.887466127945999</v>
+        <v>2.635003281621223</v>
       </c>
       <c r="R14">
-        <v>52.98719515151399</v>
+        <v>23.715029534591</v>
       </c>
       <c r="S14">
-        <v>0.0003807774292925298</v>
+        <v>0.0002068531916909396</v>
       </c>
       <c r="T14">
-        <v>0.0003807774292925299</v>
+        <v>0.0002068531916909397</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H15">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I15">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J15">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>127.1208573333333</v>
+        <v>70.96028133333334</v>
       </c>
       <c r="N15">
-        <v>381.362572</v>
+        <v>212.880844</v>
       </c>
       <c r="O15">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="P15">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="Q15">
-        <v>833.3222206034958</v>
+        <v>422.5514685259072</v>
       </c>
       <c r="R15">
-        <v>7499.899985431462</v>
+        <v>3802.963216733165</v>
       </c>
       <c r="S15">
-        <v>0.05389590123118786</v>
+        <v>0.03317116169377204</v>
       </c>
       <c r="T15">
-        <v>0.05389590123118786</v>
+        <v>0.03317116169377205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H16">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I16">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J16">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.1024133333333333</v>
+        <v>0.080319</v>
       </c>
       <c r="N16">
-        <v>0.30724</v>
+        <v>0.240957</v>
       </c>
       <c r="O16">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="P16">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="Q16">
-        <v>0.6713556543199999</v>
+        <v>0.478280395213</v>
       </c>
       <c r="R16">
-        <v>6.042200888879999</v>
+        <v>4.304523556917</v>
       </c>
       <c r="S16">
-        <v>4.342056066862838E-05</v>
+        <v>3.754599736670637E-05</v>
       </c>
       <c r="T16">
-        <v>4.342056066862838E-05</v>
+        <v>3.754599736670638E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.555353999999999</v>
+        <v>5.954760333333334</v>
       </c>
       <c r="H17">
-        <v>19.666062</v>
+        <v>17.864281</v>
       </c>
       <c r="I17">
-        <v>0.0944460517842429</v>
+        <v>0.07787389935372697</v>
       </c>
       <c r="J17">
-        <v>0.09444605178424288</v>
+        <v>0.077873899353727</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>94.64254933333332</v>
+        <v>95.105991</v>
       </c>
       <c r="N17">
-        <v>283.927648</v>
+        <v>285.317973</v>
       </c>
       <c r="O17">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="P17">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="Q17">
-        <v>620.4154143424638</v>
+        <v>566.333382669157</v>
       </c>
       <c r="R17">
-        <v>5583.738729082174</v>
+        <v>5097.000444022414</v>
       </c>
       <c r="S17">
-        <v>0.04012595256309387</v>
+        <v>0.04445833847089729</v>
       </c>
       <c r="T17">
-        <v>0.04012595256309387</v>
+        <v>0.04445833847089731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>20</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H18">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I18">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J18">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K18">
         <v>1</v>
@@ -1550,28 +1550,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>0.8981156666666666</v>
+        <v>0.4425036666666667</v>
       </c>
       <c r="N18">
-        <v>2.694347</v>
+        <v>1.327511</v>
       </c>
       <c r="O18">
-        <v>0.004031692401101065</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="P18">
-        <v>0.004031692401101066</v>
+        <v>0.00265625830230164</v>
       </c>
       <c r="Q18">
-        <v>0.3579667512135555</v>
+        <v>0.4587004808764445</v>
       </c>
       <c r="R18">
-        <v>3.221700760922</v>
+        <v>4.128304327888</v>
       </c>
       <c r="S18">
-        <v>2.315183753708494E-05</v>
+        <v>3.600893371225059E-05</v>
       </c>
       <c r="T18">
-        <v>2.315183753708493E-05</v>
+        <v>3.600893371225059E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H19">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I19">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J19">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>127.1208573333333</v>
+        <v>70.96028133333334</v>
       </c>
       <c r="N19">
-        <v>381.362572</v>
+        <v>212.880844</v>
       </c>
       <c r="O19">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="P19">
-        <v>0.5706527717464596</v>
+        <v>0.4259599425360546</v>
       </c>
       <c r="Q19">
-        <v>50.66723808525244</v>
+        <v>73.55761685755024</v>
       </c>
       <c r="R19">
-        <v>456.005142767272</v>
+        <v>662.0185517179521</v>
       </c>
       <c r="S19">
-        <v>0.003276951450451206</v>
+        <v>0.005774424618857364</v>
       </c>
       <c r="T19">
-        <v>0.003276951450451206</v>
+        <v>0.005774424618857365</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>1.036602666666667</v>
+      </c>
+      <c r="H20">
+        <v>3.109808</v>
+      </c>
+      <c r="I20">
+        <v>0.01355626208529831</v>
+      </c>
+      <c r="J20">
+        <v>0.01355626208529831</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
         <v>0.3333333333333333</v>
       </c>
-      <c r="G20">
-        <v>0.3985753333333333</v>
-      </c>
-      <c r="H20">
-        <v>1.195726</v>
-      </c>
-      <c r="I20">
-        <v>0.005742461287662251</v>
-      </c>
-      <c r="J20">
-        <v>0.005742461287662249</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
       <c r="M20">
-        <v>0.1024133333333333</v>
+        <v>0.080319</v>
       </c>
       <c r="N20">
-        <v>0.30724</v>
+        <v>0.240957</v>
       </c>
       <c r="O20">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="P20">
-        <v>0.0004597392887086524</v>
+        <v>0.0004821384016762922</v>
       </c>
       <c r="Q20">
-        <v>0.04081942847111111</v>
+        <v>0.08325888958400002</v>
       </c>
       <c r="R20">
-        <v>0.36737485624</v>
+        <v>0.749330006256</v>
       </c>
       <c r="S20">
-        <v>2.640035067826816E-06</v>
+        <v>6.535994534510647E-06</v>
       </c>
       <c r="T20">
-        <v>2.640035067826815E-06</v>
+        <v>6.535994534510648E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3985753333333333</v>
+        <v>1.036602666666667</v>
       </c>
       <c r="H21">
-        <v>1.195726</v>
+        <v>3.109808</v>
       </c>
       <c r="I21">
-        <v>0.005742461287662251</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="J21">
-        <v>0.005742461287662249</v>
+        <v>0.01355626208529831</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>94.64254933333332</v>
+        <v>95.105991</v>
       </c>
       <c r="N21">
-        <v>283.927648</v>
+        <v>285.317973</v>
       </c>
       <c r="O21">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="P21">
-        <v>0.4248557965637307</v>
+        <v>0.5709016607599675</v>
       </c>
       <c r="Q21">
-        <v>37.72218564804977</v>
+        <v>98.58712388657601</v>
       </c>
       <c r="R21">
-        <v>339.499670832448</v>
+        <v>887.284114979184</v>
       </c>
       <c r="S21">
-        <v>0.002439717964606132</v>
+        <v>0.007739292538194186</v>
       </c>
       <c r="T21">
-        <v>0.002439717964606132</v>
+        <v>0.007739292538194187</v>
       </c>
     </row>
   </sheetData>
